--- a/datamining/final_data/tfidf1960_nltk.xlsx
+++ b/datamining/final_data/tfidf1960_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ27"/>
+  <dimension ref="A1:DH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,620 +462,530 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>research</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>years</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>555pp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>555pp</t>
+          <t>book</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>co.</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>co.</t>
+          <t>french</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>educating</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>french</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>holt</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>henry</t>
+          <t>joseph</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>holt</t>
+          <t>l.</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>joseph</t>
+          <t>new</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>l.</t>
+          <t>readings</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>review</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>readings</t>
+          <t>york</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>nonconformity</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>productive</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>nonconformity</t>
+          <t>physical-education</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>productive</t>
+          <t>student</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>acceptance</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>freedom</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>physical-education</t>
+          <t>development</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>human</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>acceptance</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>freedom</t>
+          <t>utilization</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>pauls</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>program</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>utilization</t>
+          <t>project</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>school</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>special-education</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>st</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>pauls</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>special-education</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>special</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>training</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>eminence</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>families</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>procuring</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>directors</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>eminence</t>
+          <t>role</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>supervisors</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>varying</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>carolina</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>procuring</t>
+          <t>children</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>directors</t>
+          <t>commission</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>education</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>exceptionally</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>supervisors</t>
+          <t>north</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>varying</t>
+          <t>public</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>carolina</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>state</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>commission</t>
+          <t>regional</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>southern</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>exceptionally</t>
+          <t>read</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>want</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>page</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>analyze</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>lets</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>southern</t>
+          <t>social-adjustment</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>al</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>baldwin</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>bronfenbrenner</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>dc</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>mcclelland</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>society</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>strodtbeck</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>analyze</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>lets</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>social-adjustment</t>
+          <t>wilson</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>al</t>
+          <t>child</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>baldwin</t>
+          <t>teach</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>bronfenbrenner</t>
+          <t>''</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>``</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>bulletin</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>mcclelland</t>
+          <t>extracts</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>naval</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>strodtbeck</t>
+          <t>navy</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>pacific</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>south</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>studying</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>wings</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>cues</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>own</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>wilson</t>
+          <t>group</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>mh</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>mid-life</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>teach</t>
+          <t>oden</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>''</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>``</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>bulletin</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>extracts</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>naval</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>navy</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>pacific</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>south</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>studying</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>wings</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>cues</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>lm</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>mh</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>mid-life</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>oden</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>terman</t>
         </is>
@@ -1092,22 +1002,22 @@
         <v>2448</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="F2" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="G2" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="H2" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="I2" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1416,60 +1326,6 @@
         <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1499,58 +1355,58 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K3" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="L3" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="N3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O3" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="P3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="R3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="S3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="T3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="U3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="V3" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="W3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="X3" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1808,60 +1664,6 @@
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1885,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1900,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1936,22 +1738,22 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2200,60 +2002,6 @@
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2301,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -2331,28 +2079,28 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2592,60 +2340,6 @@
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2693,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -2723,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -2735,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.31</v>
+        <v>0.68</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -2747,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -2984,60 +2678,6 @@
         <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3061,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3115,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -3133,34 +2773,34 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -3376,60 +3016,6 @@
         <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3468,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3507,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -3522,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -3540,52 +3126,52 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
@@ -3768,60 +3354,6 @@
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3842,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G9" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -3899,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -3926,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -3962,40 +3494,40 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -4160,60 +3692,6 @@
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4318,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -4345,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4369,43 +3847,43 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4552,60 +4030,6 @@
         <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4629,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -4653,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -4683,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -4698,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -4710,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -4779,19 +4203,19 @@
         <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -4800,19 +4224,19 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="BQ11" t="n">
         <v>0</v>
@@ -4944,60 +4368,6 @@
         <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5075,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -5087,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -5123,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -5135,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -5153,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
@@ -5186,49 +4556,49 @@
         <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BP12" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BY12" t="n">
         <v>0</v>
@@ -5336,60 +4706,6 @@
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5437,13 +4753,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -5566,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BG13" t="n">
         <v>0</v>
@@ -5587,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
@@ -5599,10 +4915,10 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
@@ -5623,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
         <v>0</v>
@@ -5728,60 +5044,6 @@
         <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5829,13 +5091,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -5859,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -5904,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
@@ -5922,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5979,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -5997,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -6024,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
@@ -6120,60 +5382,6 @@
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6395,10 +5603,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -6422,16 +5630,16 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
         <v>0</v>
@@ -6512,60 +5720,6 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6643,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -6793,10 +5947,10 @@
         <v>0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BX16" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BY16" t="n">
         <v>0</v>
@@ -6826,10 +5980,10 @@
         <v>0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="CJ16" t="n">
         <v>0</v>
@@ -6904,60 +6058,6 @@
         <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7179,10 +6279,10 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -7206,16 +6306,16 @@
         <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
@@ -7296,60 +6396,6 @@
         <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7370,10 +6416,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="G18" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -7442,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -7478,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
@@ -7496,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
@@ -7526,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BG18" t="n">
         <v>0</v>
@@ -7547,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BN18" t="n">
         <v>0</v>
@@ -7583,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="BZ18" t="n">
         <v>0</v>
@@ -7616,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -7688,60 +6734,6 @@
         <v>0</v>
       </c>
       <c r="DH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7861,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
@@ -7879,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -7897,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AZ19" t="n">
         <v>0</v>
@@ -7978,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CA19" t="n">
         <v>0</v>
@@ -8011,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -8080,60 +7072,6 @@
         <v>0</v>
       </c>
       <c r="DH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8361,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="BW20" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BX20" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BY20" t="n">
         <v>0</v>
@@ -8373,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="CA20" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="CB20" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="CC20" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="CD20" t="n">
         <v>0</v>
@@ -8394,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CJ20" t="n">
         <v>0</v>
@@ -8406,13 +7344,13 @@
         <v>0</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CO20" t="n">
         <v>0</v>
@@ -8472,60 +7410,6 @@
         <v>0</v>
       </c>
       <c r="DH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8561,13 +7445,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -8594,13 +7478,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -8630,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
@@ -8774,31 +7658,31 @@
         <v>0</v>
       </c>
       <c r="CD21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CE21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CF21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CG21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CH21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CI21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CK21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CL21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CM21" t="n">
         <v>0</v>
@@ -8807,34 +7691,34 @@
         <v>0</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CP21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CW21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CX21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CY21" t="n">
         <v>0</v>
@@ -8864,60 +7748,6 @@
         <v>0</v>
       </c>
       <c r="DH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8953,13 +7783,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -8986,13 +7816,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -9193,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="CM22" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="CN22" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="CO22" t="n">
         <v>0</v>
@@ -9229,22 +8059,22 @@
         <v>0</v>
       </c>
       <c r="CY22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DA22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DB22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DC22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DD22" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="DE22" t="n">
         <v>0</v>
@@ -9256,60 +8086,6 @@
         <v>0</v>
       </c>
       <c r="DH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9390,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -9399,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -9540,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="BX23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BY23" t="n">
         <v>0</v>
@@ -9591,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="CO23" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="CP23" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="CQ23" t="n">
         <v>0</v>
@@ -9636,72 +8412,18 @@
         <v>0</v>
       </c>
       <c r="DD23" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DE23" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="DG23" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="DH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9779,10 +8501,10 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -9791,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -9806,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
@@ -9827,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
@@ -9845,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
@@ -9932,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="BX24" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="BY24" t="n">
         <v>0</v>
@@ -9989,34 +8711,34 @@
         <v>0</v>
       </c>
       <c r="CQ24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CR24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CS24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CT24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CU24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CV24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CW24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CX24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CY24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="CZ24" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -10028,72 +8750,18 @@
         <v>0</v>
       </c>
       <c r="DD24" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="DE24" t="n">
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="DG24" t="n">
         <v>0</v>
       </c>
       <c r="DH24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DI24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DJ24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DK24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DL24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DM24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DN24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DO24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DP24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DQ24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10174,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -10183,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -10324,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="BX25" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BY25" t="n">
         <v>0</v>
@@ -10411,10 +9079,10 @@
         <v>0</v>
       </c>
       <c r="DA25" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="DB25" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="DC25" t="n">
         <v>0</v>
@@ -10432,60 +9100,6 @@
         <v>0</v>
       </c>
       <c r="DH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR25" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DS25" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10707,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="BU26" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BV26" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BW26" t="n">
         <v>0</v>
@@ -10734,16 +9348,16 @@
         <v>0</v>
       </c>
       <c r="CD26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CE26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CF26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CG26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CH26" t="n">
         <v>0</v>
@@ -10824,60 +9438,6 @@
         <v>0</v>
       </c>
       <c r="DH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10913,25 +9473,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10946,16 +9506,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -11201,76 +9761,22 @@
         <v>0</v>
       </c>
       <c r="DC27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DD27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DE27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DF27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DG27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT27" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DU27" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DV27" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DW27" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DX27" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DY27" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="DZ27" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
